--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821BDEE-3B0E-4DB4-BB8D-29A4AF8F3AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42962A-6623-472A-9B8A-92CC0DCBB760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F5FAC30-FAAD-438C-BAF8-BAE4F4508585}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -75,6 +75,419 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>住所2</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>156-0042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120-0011</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主婦</t>
+    <rPh sb="0" eb="2">
+      <t>シュフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>333-0864</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>279-0012</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>108-0072</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>248-0024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>182-0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>601-8478</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>246-0028</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>459-8004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>602-8345</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>330-0042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>214-0014</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>558-0041</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>723-0047</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>243-0423</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>125-0062</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇プラザ205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイツ〇〇102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーポ〇〇103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇〇ガーデン806</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世田谷区羽根木x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>セタガヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハネギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足立区中央本町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>アダチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チュウオウホンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="2">
+      <t>サイタマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口市柳根町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヤナネチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉県</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浦安市入船x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>ウラヤス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イリフネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>港区白金x-x-x</t>
+    <rPh sb="0" eb="1">
+      <t>ミナト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シロカネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <rPh sb="0" eb="3">
+      <t>カナガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌倉市稲村ガ崎x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カマクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イナムラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調布市仙川町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>チョウフ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>センガワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都府</t>
+    <rPh sb="0" eb="3">
+      <t>キョウトフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市南区東寺町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒガシテラマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>千葉市若葉区桜木x-x</t>
+    <rPh sb="0" eb="2">
+      <t>チバ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ワカバク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクラギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛知県</t>
+    <rPh sb="0" eb="2">
+      <t>アイチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名古屋市緑区有松南x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アリマツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミナミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都市上京区一番町x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>キョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カミギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イチバンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>広島県</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三原市青葉台x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>ミハラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>アオバダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府</t>
+    <rPh sb="0" eb="3">
+      <t>オオサカフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海老名市今里x-x-x</t>
+    <rPh sb="0" eb="3">
+      <t>エビナ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イマザト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葛飾区青戸x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カツシカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>都道府県</t>
     <rPh sb="0" eb="4">
       <t>トドウフケン</t>
@@ -83,448 +496,243 @@
   </si>
   <si>
     <t>住所1</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所2</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さいたま市浦和区木崎x-x-x</t>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウラワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎市多摩区登戸x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノブト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪市住吉区南住吉x-x-x</t>
+    <rPh sb="0" eb="2">
+      <t>オオサカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミヨシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ミナミスミヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
   </si>
   <si>
     <t>田中　桃子</t>
     <rPh sb="0" eb="2">
-      <t>タナカ</t>
+      <t>たなか</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>モモコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女</t>
-    <rPh sb="0" eb="1">
-      <t>オンナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>156-0042</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都世田谷区羽根木x-x-x</t>
-    <rPh sb="0" eb="10">
-      <t>156-0042</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ももこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>伊勢　洋司</t>
     <rPh sb="0" eb="2">
-      <t>イセ</t>
+      <t>いせ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ヨウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男</t>
-    <rPh sb="0" eb="1">
-      <t>オトコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>120-0011</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都足立区中央本町x-x-x</t>
-    <rPh sb="0" eb="10">
-      <t>120-0011</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>ようじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>小林　希美</t>
     <rPh sb="0" eb="2">
-      <t>コバヤシ</t>
+      <t>こばやし</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ノゾミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主婦</t>
-    <rPh sb="0" eb="2">
-      <t>シュフ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>333-0864</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県川口市柳根町x-x-x</t>
-    <rPh sb="0" eb="9">
-      <t>333-0864</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>のぞみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>荻原　芳夫</t>
     <rPh sb="0" eb="2">
-      <t>オギワラ</t>
+      <t>おぎわら</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ヨシオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フリーター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>279-0012</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>千葉県浦安市入船x-x-x</t>
-    <rPh sb="0" eb="8">
-      <t>279-0012</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>よしお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>内田　恵子</t>
     <rPh sb="0" eb="2">
-      <t>ウチダ</t>
+      <t>うちだ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>メグミ</t>
+      <t>めぐみ</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>108-0072</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都港区白金x-x-x</t>
-    <rPh sb="0" eb="7">
-      <t>108-0072</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>こ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>三上　信一</t>
     <rPh sb="0" eb="2">
-      <t>ミカミ</t>
+      <t>みかみ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>シンイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>248-0024</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神奈川県鎌倉市稲村ガ崎x-x-x</t>
-    <rPh sb="0" eb="11">
-      <t>248-0024</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>しんいち</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>北山　寛子</t>
     <rPh sb="0" eb="2">
-      <t>キタヤマ</t>
+      <t>きたやま</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>カン</t>
+      <t>かん</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>182-0002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都調布市仙川町x-x-x</t>
-    <rPh sb="0" eb="9">
-      <t>182-0002</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>こ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>高木　和美</t>
     <rPh sb="0" eb="2">
-      <t>タカギ</t>
+      <t>たかぎ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>カズミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>601-8478</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京都府京都市南区東寺町x-x-x</t>
-    <rPh sb="0" eb="11">
-      <t>601-8478</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>かずみ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>中村　泰輔</t>
     <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
+      <t>なかむら</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>タイスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>246-0028</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>千葉県千葉市若葉区桜木x-x</t>
-    <rPh sb="0" eb="6">
-      <t>チバケンチバシ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ワカバク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクラギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>たいすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>岡崎　大悟</t>
     <rPh sb="0" eb="2">
-      <t>オカザキ</t>
+      <t>おかざき</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ダイゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>459-8004</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>愛知県名古屋市緑区有松南x-x-x</t>
-    <rPh sb="0" eb="12">
-      <t>459-8004</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>だいご</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>山本　紀夫</t>
     <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
+      <t>やまもと</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ノリオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>602-8345</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>京都府京都市上京区一番町x-x-x</t>
-    <rPh sb="0" eb="12">
-      <t>602-8345</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>のりお</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>斎藤　薫</t>
     <rPh sb="0" eb="2">
-      <t>サイトウ</t>
+      <t>さいとう</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>カオル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>330-0042</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県さいたま市浦和区木崎</t>
-    <rPh sb="0" eb="13">
-      <t>330-0042</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>かおる</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>前田　隆</t>
     <rPh sb="0" eb="2">
-      <t>マエダ</t>
+      <t>まえだ</t>
     </rPh>
     <rPh sb="3" eb="4">
-      <t>タカシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>214-0014</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神奈川県川崎市多摩区登戸</t>
-    <rPh sb="0" eb="12">
-      <t>214-0014</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>たかし</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>樋村　礼子</t>
+    <rPh sb="0" eb="2">
+      <t>ひむら</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>あやこ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
   </si>
   <si>
     <t>服部　健介</t>
     <rPh sb="0" eb="2">
-      <t>ハットリ</t>
+      <t>はっとり</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ケンスケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>558-0041</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪府大阪市住吉区南住吉</t>
-    <rPh sb="0" eb="12">
-      <t>558-0041</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>樋村　礼子</t>
-    <rPh sb="0" eb="2">
-      <t>ヒムラ</t>
+      <t>けんすけ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>水嶋　歩</t>
+    <rPh sb="0" eb="2">
+      <t>みずしま</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>あゆ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>中山　浩江</t>
+    <rPh sb="0" eb="2">
+      <t>なかやま</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>レイコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>723-0047</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>広島県三原市青葉台x-x-x</t>
-    <rPh sb="0" eb="9">
-      <t>723-0047</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水嶋　歩</t>
-    <rPh sb="0" eb="2">
-      <t>ミズシマ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>アユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>243-0423</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>神奈川県海老名市今里x-x-x</t>
-    <rPh sb="0" eb="10">
-      <t>243-0423</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中山　浩江</t>
-    <rPh sb="0" eb="2">
-      <t>ナカヤマ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒロエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>125-0062</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>東京都葛飾区青戸x-x-x</t>
-    <rPh sb="0" eb="8">
-      <t>125-0062</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇プラザ205</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ハイツ〇〇102</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーポ〇〇103</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇〇ガーデン806</t>
-    <phoneticPr fontId="1"/>
+      <t>ひろえ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="Hiragana"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
   </si>
 </sst>
 </file>
@@ -581,7 +789,10 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -602,17 +813,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}" name="テーブル1" displayName="テーブル1" ref="A1:I19" totalsRowShown="0">
-  <autoFilter ref="A1:I19" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
+  <autoFilter ref="A1:J19" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
+    <sortCondition ref="A1:A19"/>
+  </sortState>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5ACEBD00-5A7D-4491-BB70-91D1BDA103CD}" name="NO"/>
     <tableColumn id="2" xr3:uid="{25FC2C0D-F9E8-4EFC-9B8C-AE459E632F33}" name="氏名"/>
-    <tableColumn id="3" xr3:uid="{8687D1C5-66DA-4061-AD42-6E75D8BBA720}" name="性別" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7A113ADF-75C7-4B0B-841C-539DE48C8691}" name="年齢" dataDxfId="0"/>
+    <tableColumn id="11" xr3:uid="{028A6196-A5AA-4EEF-8362-DE69455CE4FC}" name="列1" dataDxfId="0">
+      <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{8687D1C5-66DA-4061-AD42-6E75D8BBA720}" name="性別" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7A113ADF-75C7-4B0B-841C-539DE48C8691}" name="年齢" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{E3D39A29-933C-4810-BF13-3623DBDE0EB9}" name="職業"/>
     <tableColumn id="6" xr3:uid="{7980DB90-206B-42AE-A887-9673BCD6A778}" name="郵便番号"/>
-    <tableColumn id="7" xr3:uid="{2447DC8E-49B1-4673-A276-78696222782A}" name="都道府県"/>
-    <tableColumn id="8" xr3:uid="{EAF1F49E-B018-4E94-8EE5-32123F719E38}" name="住所1"/>
+    <tableColumn id="8" xr3:uid="{EAF1F49E-B018-4E94-8EE5-32123F719E38}" name="都道府県"/>
+    <tableColumn id="10" xr3:uid="{9BB13C5B-4CC8-4442-9776-6C79BDE34852}" name="住所1"/>
     <tableColumn id="9" xr3:uid="{1B7D2832-9918-42D0-B841-B637886237C3}" name="住所2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -916,24 +1133,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EAFE9F-C4CA-472A-BCAC-2BB57477BE91}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.796875" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" customWidth="1"/>
+    <col min="8" max="8" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -941,460 +1160,589 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たなか　ももこ</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1">
+        <v>63</v>
+      </c>
+      <c r="C3" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>いせ　ようじ</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
+        <v>64</v>
+      </c>
+      <c r="C4" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>こばやし　のぞみ</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>おぎわら　よしお</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
+        <v>66</v>
+      </c>
+      <c r="C6" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>うちだ　めぐみこ</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1">
+        <v>67</v>
+      </c>
+      <c r="C7" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みかみ　しんいち</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>きたやま　かんこ</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
+        <v>69</v>
+      </c>
+      <c r="C9" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>たかぎ　かずみ</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
       <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1">
+        <v>70</v>
+      </c>
+      <c r="C10" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかむら　たいすけ</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
+        <v>71</v>
+      </c>
+      <c r="C11" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>おかざき　だいご</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1">
+        <v>72</v>
+      </c>
+      <c r="C12" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>やまもと　のりお</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="I12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
+        <v>73</v>
+      </c>
+      <c r="C13" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>さいとう　かおる</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
         <v>31</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1">
+        <v>74</v>
+      </c>
+      <c r="C14" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>まえだ　たかし</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>17</v>
       </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
+        <v>75</v>
+      </c>
+      <c r="C15" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>ひむら　あやこ</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="I15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
+        <v>76</v>
+      </c>
+      <c r="C16" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>はっとり　けんすけ</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>21</v>
       </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1">
+        <v>77</v>
+      </c>
+      <c r="C17" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>みずしま　あゆ</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
         <v>31</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="1">
+        <v>78</v>
+      </c>
+      <c r="C18" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>なかやま　ひろえ</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1">
         <v>18</v>
       </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="str">
+        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
+        <v>おぎわら　よしお</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>40</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="1" type="Hiragana"/>
   <dataValidations count="1">
-    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{6110A150-1FB5-46B3-A180-086AA897015C}"/>
+    <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{6110A150-1FB5-46B3-A180-086AA897015C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42962A-6623-472A-9B8A-92CC0DCBB760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03832A3-959B-4C49-A567-B878F00BF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F5FAC30-FAAD-438C-BAF8-BAE4F4508585}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -791,13 +791,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -813,19 +813,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}" name="テーブル1" displayName="テーブル1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter ref="A1:J19" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}" name="テーブル1" displayName="テーブル1" ref="A1:J18" totalsRowShown="0">
+  <autoFilter ref="A1:J18" xr:uid="{EEBA8D8E-1909-4194-AD40-A8CE7D5874F2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J18">
     <sortCondition ref="A1:A19"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{5ACEBD00-5A7D-4491-BB70-91D1BDA103CD}" name="NO"/>
     <tableColumn id="2" xr3:uid="{25FC2C0D-F9E8-4EFC-9B8C-AE459E632F33}" name="氏名"/>
-    <tableColumn id="11" xr3:uid="{028A6196-A5AA-4EEF-8362-DE69455CE4FC}" name="列1" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{028A6196-A5AA-4EEF-8362-DE69455CE4FC}" name="列1" dataDxfId="2">
       <calculatedColumnFormula>PHONETIC(テーブル1[[#This Row],[氏名]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{8687D1C5-66DA-4061-AD42-6E75D8BBA720}" name="性別" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7A113ADF-75C7-4B0B-841C-539DE48C8691}" name="年齢" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{8687D1C5-66DA-4061-AD42-6E75D8BBA720}" name="性別" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7A113ADF-75C7-4B0B-841C-539DE48C8691}" name="年齢" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{E3D39A29-933C-4810-BF13-3623DBDE0EB9}" name="職業"/>
     <tableColumn id="6" xr3:uid="{7980DB90-206B-42AE-A887-9673BCD6A778}" name="郵便番号"/>
     <tableColumn id="8" xr3:uid="{EAF1F49E-B018-4E94-8EE5-32123F719E38}" name="都道府県"/>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EAFE9F-C4CA-472A-BCAC-2BB57477BE91}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -1706,39 +1706,6 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" t="str">
-        <f>PHONETIC(テーブル1[[#This Row],[氏名]])</f>
-        <v>おぎわら　よしお</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="Hiragana"/>
   <dataValidations count="1">

--- a/22_顧客名簿.xlsx
+++ b/22_顧客名簿.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\am\Documents\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03832A3-959B-4C49-A567-B878F00BF47A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ABE55C-9099-41AD-9757-4A9EE8972FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F5FAC30-FAAD-438C-BAF8-BAE4F4508585}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1136,7 +1139,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A10" sqref="A10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1711,9 +1714,13 @@
   <dataValidations count="1">
     <dataValidation imeMode="halfAlpha" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{6110A150-1FB5-46B3-A180-086AA897015C}"/>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="9" max="16383" man="1"/>
+  </rowBreaks>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>